--- a/Tests/integrationTests/03_ACS-ARE-interaction/Test_cases_ACS_ARE.xlsx
+++ b/Tests/integrationTests/03_ACS-ARE-interaction/Test_cases_ACS_ARE.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
   <si>
     <t>Number</t>
   </si>
@@ -379,13 +379,25 @@
   <si>
     <t xml:space="preserve">1. Execute Test ACS_ARE_5, by clicking the upload button 10 time as fast as possible
 </t>
+  </si>
+  <si>
+    <t>Test Execution Infos</t>
+  </si>
+  <si>
+    <t>Name of Tester:</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>Environment (OS + Version, Architecture, Java Version):</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,6 +424,14 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -461,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -476,6 +496,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -746,7 +769,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -756,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,6 +796,12 @@
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="2" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -781,6 +810,9 @@
       <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="D2" s="7" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -788,6 +820,9 @@
       </c>
       <c r="B3" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">

--- a/Tests/integrationTests/03_ACS-ARE-interaction/Test_cases_ACS_ARE.xlsx
+++ b/Tests/integrationTests/03_ACS-ARE-interaction/Test_cases_ACS_ARE.xlsx
@@ -163,10 +163,6 @@
     <t>ACS_ARE_6</t>
   </si>
   <si>
-    <t>ARE start file: Are.exe (start.sh - Linux)
-ACS: ACS.exe</t>
-  </si>
-  <si>
     <t>Connect to ARE</t>
   </si>
   <si>
@@ -237,31 +233,6 @@
   </si>
   <si>
     <t>ACS_ARE_15</t>
-  </si>
-  <si>
-    <t>ARE start file: Are.exe (start.sh - Linux)
-ACS: ACS.exe
-model: demomenu.acs</t>
-  </si>
-  <si>
-    <t>ARE start file: Are.exe (start.sh - Linux)
-ACS: ACS.exe
-store model as: demomenu_new.acs</t>
-  </si>
-  <si>
-    <t>ARE start file: Are.exe (start.sh - Linux)
-ACS: ACS.exe
-delete model: demomenu_new.acs</t>
-  </si>
-  <si>
-    <t>ARE start file: Are.exe (start.sh - Linux)
-ACS: ACS.exe
-activate model: ImageDemo.acs</t>
-  </si>
-  <si>
-    <t>ARE start file: Are.exe (start.sh - Linux)
-ACS: ACS.exe
-activate model: CameraMouse.acs</t>
   </si>
   <si>
     <t>1. Execute ARE start file
@@ -274,11 +245,6 @@
 3. The connection must be successful with ARE Status: Connected</t>
   </si>
   <si>
-    <t>ARE start file: Are.exe (start.sh - Linux)
-ACS: ACS.exe
-Test ACS_ARE_1</t>
-  </si>
-  <si>
     <t>1. Execute Test ACS_ARE_1
 2. Click on 'Download Component Collection' button</t>
   </si>
@@ -295,22 +261,12 @@
 3. ARE Status: Synchronized</t>
   </si>
   <si>
-    <t>ARE start file: Are.exe (start.sh - Linux)
-ACS: ACS.exe
-Test ACS_ARE_3</t>
-  </si>
-  <si>
     <t>1. Execute Test ACS_ARE_3
 2. Click 'Stop' model button (If button is disabled, click on 'Start'-button first)</t>
   </si>
   <si>
     <t>1. If the model on the ARE is running, the ACS must disable the 'Start' button
 2. After clicking ARE Status: Synchronized</t>
-  </si>
-  <si>
-    <t>ARE start file: Are.exe (start.sh - Linux)
-ACS: ACS.exe
-ACS_ARE_4</t>
   </si>
   <si>
     <t>1. Execute Test ACS_ARE_4
@@ -339,58 +295,102 @@
 3. After clicking 'Start' ARE Status: 'Running' and the model GUI shown and functional as expected</t>
   </si>
   <si>
-    <t>ARE start file: Are.exe (start.sh - Linux)
+    <t>1. Execute Test ACS_ARE_4
+2. ACS: Open model file 'CameraMouse.acs'  by clicking on 'Open Model' button
+3. Click 'Upload' model button</t>
+  </si>
+  <si>
+    <t>1. The model must be loaded into the 'Deployment Tab'
+2. After upload: The model must be deployed successfully
+ARE Status: Synchronized</t>
+  </si>
+  <si>
+    <t>1. Execute Test ACS_ARE_5
+2. ACS: Open model file 'CameraMouse.acs'  by clicking on 'Open Model' button
+3. Click 'Upload' model button</t>
+  </si>
+  <si>
+    <t>1. The model must be loaded into the 'Deployment Tab'
+2. After upload: The model must stop the previously running model and be deployed successfully
+ARE Status: Synchronized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Execute Test ACS_ARE_5, by clicking the upload button 10 time as fast as possible
+</t>
+  </si>
+  <si>
+    <t>Test Execution Infos</t>
+  </si>
+  <si>
+    <t>Name of Tester:</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>Environment (OS + Version, Architecture, Java Version):</t>
+  </si>
+  <si>
+    <t>ARE start file: start.bat (start.sh - Linux)
+ACS: ACS.exe</t>
+  </si>
+  <si>
+    <t>ARE start file: start.bat (start.sh - Linux)
+ACS: ACS.exe
+Test ACS_ARE_1</t>
+  </si>
+  <si>
+    <t>ARE start file: start.bat (start.sh - Linux)
+ACS: ACS.exe
+Test ACS_ARE_3</t>
+  </si>
+  <si>
+    <t>ARE start file: start.bat (start.sh - Linux)
+ACS: ACS.exe
+ACS_ARE_4</t>
+  </si>
+  <si>
+    <t>ARE start file: start.bat (start.sh - Linux)
 ACS: ACS.exe
 ACS_ARE_4
 model: CameraMouse.acs</t>
   </si>
   <si>
-    <t>1. Execute Test ACS_ARE_4
-2. ACS: Open model file 'CameraMouse.acs'  by clicking on 'Open Model' button
-3. Click 'Upload' model button</t>
-  </si>
-  <si>
-    <t>1. The model must be loaded into the 'Deployment Tab'
-2. After upload: The model must be deployed successfully
-ARE Status: Synchronized</t>
-  </si>
-  <si>
-    <t>ARE start file: Are.exe (start.sh - Linux)
+    <t>ARE start file: start.bat (start.sh - Linux)
 ACS: ACS.exe
 ACS_ARE_5
 model: CameraMouse.acs</t>
   </si>
   <si>
-    <t>1. Execute Test ACS_ARE_5
-2. ACS: Open model file 'CameraMouse.acs'  by clicking on 'Open Model' button
-3. Click 'Upload' model button</t>
-  </si>
-  <si>
-    <t>1. The model must be loaded into the 'Deployment Tab'
-2. After upload: The model must stop the previously running model and be deployed successfully
-ARE Status: Synchronized</t>
-  </si>
-  <si>
-    <t>ARE start file: Are.exe (start.sh - Linux)
+    <t>ARE start file: start.bat (start.sh - Linux)
 ACS: ACS.exe
 ACS_ARE_9
 model: CameraMouse.acs</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Execute Test ACS_ARE_5, by clicking the upload button 10 time as fast as possible
-</t>
-  </si>
-  <si>
-    <t>Test Execution Infos</t>
-  </si>
-  <si>
-    <t>Name of Tester:</t>
-  </si>
-  <si>
-    <t>Date:</t>
-  </si>
-  <si>
-    <t>Environment (OS + Version, Architecture, Java Version):</t>
+    <t>ARE start file: start.bat (start.sh - Linux)
+ACS: ACS.exe
+activate model: ImageDemo.acs</t>
+  </si>
+  <si>
+    <t>ARE start file: start.bat (start.sh - Linux)
+ACS: ACS.exe
+activate model: CameraMouse.acs</t>
+  </si>
+  <si>
+    <t>ARE start file: start.bat (start.sh - Linux)
+ACS: ACS.exe
+model: demomenu.acs</t>
+  </si>
+  <si>
+    <t>ARE start file: start.bat (start.sh - Linux)
+ACS: ACS.exe
+store model as: demomenu_new.acs</t>
+  </si>
+  <si>
+    <t>ARE start file: start.bat (start.sh - Linux)
+ACS: ACS.exe
+delete model: demomenu_new.acs</t>
   </si>
 </sst>
 </file>
@@ -769,7 +769,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -779,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D3"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,10 +797,10 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -811,7 +811,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.4">
@@ -822,7 +822,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -853,16 +853,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F7" s="5"/>
     </row>
@@ -871,16 +871,16 @@
         <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -889,16 +889,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -907,16 +907,16 @@
         <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F10" s="5"/>
     </row>
@@ -925,16 +925,16 @@
         <v>15</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F11" s="5"/>
     </row>
@@ -943,100 +943,100 @@
         <v>16</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1044,13 +1044,13 @@
     </row>
     <row r="18" spans="1:6" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1058,13 +1058,13 @@
     </row>
     <row r="19" spans="1:6" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1072,13 +1072,13 @@
     </row>
     <row r="20" spans="1:6" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1086,13 +1086,13 @@
     </row>
     <row r="21" spans="1:6" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>

--- a/Tests/integrationTests/03_ACS-ARE-interaction/Test_cases_ACS_ARE.xlsx
+++ b/Tests/integrationTests/03_ACS-ARE-interaction/Test_cases_ACS_ARE.xlsx
@@ -47,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0">
+    <comment ref="D6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0">
+    <comment ref="E6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0">
+    <comment ref="F6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0">
+    <comment ref="G6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="82">
   <si>
     <t>Number</t>
   </si>
@@ -135,10 +135,6 @@
   </si>
   <si>
     <t>Common Requirements</t>
-  </si>
-  <si>
-    <t>Note: If no error dialogs are shown in the ARE gui, ensure to set the following property in the fie 'areProperties':
-showErrorDialogs=1</t>
   </si>
   <si>
     <t>ACS_ARE_1</t>
@@ -256,25 +252,12 @@
 2. Click on 'Download Model' button</t>
   </si>
   <si>
-    <t>1. The currently deployed model must be downloaded and shown in the 'Deployment' tab
-2. If the model on the ARE is running, the ACS must disable the 'Start' button
-3. ARE Status: Synchronized</t>
-  </si>
-  <si>
     <t>1. Execute Test ACS_ARE_3
 2. Click 'Stop' model button (If button is disabled, click on 'Start'-button first)</t>
   </si>
   <si>
-    <t>1. If the model on the ARE is running, the ACS must disable the 'Start' button
-2. After clicking ARE Status: Synchronized</t>
-  </si>
-  <si>
     <t>1. Execute Test ACS_ARE_4
 2. Click 'Start' model button (If button is disabled, click on 'Stop'-button first)</t>
-  </si>
-  <si>
-    <t>1. If the model on the ARE is stopped, the ACS must disable the 'Stop' amd Pause buttons
-2. After clicking ARE Status: Running and Deployment tab (Canvas) coloured differently</t>
   </si>
   <si>
     <t>1. Execute Test ACS_ARE_4
@@ -290,11 +273,6 @@
 3. Click 'Start' model button</t>
   </si>
   <si>
-    <t>1. If the model on the ARE is running, the ACS must disable the 'Start' button
-2. After clicking 'Pause' ARE Status: 'Paused' and the model GUI shown but the model not functional as expected
-3. After clicking 'Start' ARE Status: 'Running' and the model GUI shown and functional as expected</t>
-  </si>
-  <si>
     <t>1. Execute Test ACS_ARE_4
 2. ACS: Open model file 'CameraMouse.acs'  by clicking on 'Open Model' button
 3. Click 'Upload' model button</t>
@@ -331,73 +309,152 @@
     <t>Environment (OS + Version, Architecture, Java Version):</t>
   </si>
   <si>
-    <t>ARE start file: start.bat (start.sh - Linux)
+    <r>
+      <t xml:space="preserve">Note: If no error dialogs are shown in the ARE gui, ensure to set the following property in the file 'areProperties':
+showErrorDialogs=1
+AsTeRICS must be installed according to test cases 01a_AsTeRICS_Setup
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ARE start files:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Win: ARE.exe, start.bat and start_debug.bat
+Linux: start.sh, start_debug.sh or asterics-are-javaembedded
+Mac OSX: start.sh, start_debug.sh</t>
+    </r>
+  </si>
+  <si>
+    <t>Applicable OS (Skip otherwise)</t>
+  </si>
+  <si>
+    <t>ACE_ARE_1a</t>
+  </si>
+  <si>
+    <t>Disable ACS to ARE connection port</t>
+  </si>
+  <si>
+    <t>ARE start file: start.bat (start.sh)
 ACS: ACS.exe</t>
   </si>
   <si>
-    <t>ARE start file: start.bat (start.sh - Linux)
+    <t>5. The connection must fail with an error message</t>
+  </si>
+  <si>
+    <t>1. Edit ARE/areProperties file and set 
+ASAPI.enableACSPortConnection=0
+2. Save areProperties file
+3. Execute ARE start file
+4. Start ACS
+5. Click on 'Connect to ARE' button
+6. After test, close both applications and delte areProperties file</t>
+  </si>
+  <si>
+    <t>Win</t>
+  </si>
+  <si>
+    <t>ARE start file: start.bat (start.sh)
 ACS: ACS.exe
 Test ACS_ARE_1</t>
   </si>
   <si>
-    <t>ARE start file: start.bat (start.sh - Linux)
+    <t>ARE start file: start.bat (start.sh)
 ACS: ACS.exe
 Test ACS_ARE_3</t>
   </si>
   <si>
-    <t>ARE start file: start.bat (start.sh - Linux)
+    <t>ARE start file: start.bat (start.sh)
 ACS: ACS.exe
 ACS_ARE_4</t>
   </si>
   <si>
-    <t>ARE start file: start.bat (start.sh - Linux)
+    <t>ARE start file: start.bat (start.sh)
 ACS: ACS.exe
 ACS_ARE_4
 model: CameraMouse.acs</t>
   </si>
   <si>
-    <t>ARE start file: start.bat (start.sh - Linux)
+    <t>ARE start file: start.bat (start.sh)
 ACS: ACS.exe
 ACS_ARE_5
 model: CameraMouse.acs</t>
   </si>
   <si>
-    <t>ARE start file: start.bat (start.sh - Linux)
+    <t>ARE start file: start.bat (start.sh)
 ACS: ACS.exe
 ACS_ARE_9
 model: CameraMouse.acs</t>
   </si>
   <si>
-    <t>ARE start file: start.bat (start.sh - Linux)
+    <t>ARE start file: start.bat (start.sh)
 ACS: ACS.exe
 activate model: ImageDemo.acs</t>
   </si>
   <si>
-    <t>ARE start file: start.bat (start.sh - Linux)
+    <t>ARE start file: start.bat (start.sh)
 ACS: ACS.exe
 activate model: CameraMouse.acs</t>
   </si>
   <si>
-    <t>ARE start file: start.bat (start.sh - Linux)
+    <t>ARE start file: start.bat (start.sh)
 ACS: ACS.exe
 model: demomenu.acs</t>
   </si>
   <si>
-    <t>ARE start file: start.bat (start.sh - Linux)
+    <t>ARE start file: start.bat (start.sh)
 ACS: ACS.exe
 store model as: demomenu_new.acs</t>
   </si>
   <si>
-    <t>ARE start file: start.bat (start.sh - Linux)
+    <t>ARE start file: start.bat (start.sh)
 ACS: ACS.exe
 delete model: demomenu_new.acs</t>
+  </si>
+  <si>
+    <t>1. The currently deployed model must be downloaded and shown in the 'Deployment' tab
+2. If the model on the ARE is running, the ACS must disable the 'Start' button and enable the 'Pause' and  'Stop' button
+3. ARE Status: Running</t>
+  </si>
+  <si>
+    <t>1. If the model on the ARE is running, the ACS must disable the 'Start' button
+2. After clicking, the model must stop running,
+ARE Status: Synchronized</t>
+  </si>
+  <si>
+    <t>1. If the model on the ARE is stopped, the ACS must disable the 'Stop' amd Pause buttons
+2. After clicking the model must be started without error message
+ARE Status: Running
+Deployment tab (Canvas) background color must change to grey</t>
+  </si>
+  <si>
+    <t>1. If the model on the ARE is running, the ACS must disable the 'Start' button
+2. After clicking 'Pause Model' button, the model GUI must be shown but the model not functional as expected
+ARE Status: 'Pause' 
+3. After clicking 'Start Model' button, the model GUI  must be shown and functional as expected
+ARE Status: 'Running'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,6 +485,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -769,7 +834,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -777,58 +842,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="76.140625" customWidth="1"/>
-    <col min="2" max="2" width="63" customWidth="1"/>
-    <col min="3" max="3" width="62.5703125" customWidth="1"/>
-    <col min="4" max="4" width="77" customWidth="1"/>
-    <col min="5" max="5" width="58.7109375" customWidth="1"/>
+    <col min="2" max="3" width="63" customWidth="1"/>
+    <col min="4" max="4" width="62.5703125" customWidth="1"/>
+    <col min="5" max="5" width="77" customWidth="1"/>
+    <col min="6" max="6" width="58.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="E2" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="167.25" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="E3" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -836,771 +903,903 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="171" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="171" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="171" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="C9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="F9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>66</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="F14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="5"/>
+        <v>66</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="5"/>
+        <v>66</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="5"/>
+        <v>66</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="5"/>
+        <v>66</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
       <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="3"/>
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="4"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F59" s="3"/>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="4"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="3"/>
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="4"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F61" s="3"/>
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
-      <c r="F62" s="4"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F62" s="3"/>
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
-      <c r="F63" s="4"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F63" s="3"/>
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
-      <c r="F64" s="4"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F64" s="3"/>
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="4"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F65" s="3"/>
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
-      <c r="F66" s="4"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F66" s="3"/>
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
-      <c r="F67" s="4"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F67" s="3"/>
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="4"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F68" s="3"/>
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="4"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F69" s="3"/>
+      <c r="G69" s="4"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
-      <c r="F70" s="4"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F70" s="3"/>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="4"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F71" s="3"/>
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="4"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F72" s="3"/>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
-      <c r="F73" s="4"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F73" s="3"/>
+      <c r="G73" s="4"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
-      <c r="F74" s="4"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F74" s="3"/>
+      <c r="G74" s="4"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="4"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F75" s="3"/>
+      <c r="G75" s="4"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="4"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F76" s="3"/>
+      <c r="G76" s="4"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
-      <c r="F77" s="4"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F77" s="3"/>
+      <c r="G77" s="4"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
-      <c r="F78" s="4"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F78" s="3"/>
+      <c r="G78" s="4"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
-      <c r="F79" s="4"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F79" s="3"/>
+      <c r="G79" s="4"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="4"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F80" s="3"/>
+      <c r="G80" s="4"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="4"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F81" s="3"/>
+      <c r="G81" s="4"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
-      <c r="F82" s="4"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="3"/>
+      <c r="G82" s="4"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
-      <c r="F83" s="4"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F83" s="3"/>
+      <c r="G83" s="4"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
-      <c r="F84" s="4"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="4"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/Tests/integrationTests/03_ACS-ARE-interaction/Test_cases_ACS_ARE.xlsx
+++ b/Tests/integrationTests/03_ACS-ARE-interaction/Test_cases_ACS_ARE.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>Number</t>
   </si>
@@ -409,11 +409,6 @@
   <si>
     <t>ARE start file: start.bat (start.sh)
 ACS: ACS.exe
-activate model: CameraMouse.acs</t>
-  </si>
-  <si>
-    <t>ARE start file: start.bat (start.sh)
-ACS: ACS.exe
 model: demomenu.acs</t>
   </si>
   <si>
@@ -448,6 +443,64 @@
 ARE Status: 'Pause' 
 3. After clicking 'Start Model' button, the model GUI  must be shown and functional as expected
 ARE Status: 'Running'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Execute ARE start file
+2. Start ACS
+3. Click on 'Connect to ARE' button
+4. Click on 'Activate a stored Model', select the model 'ImageDemo.acs' and click onto OK
+</t>
+  </si>
+  <si>
+    <t>4.The 'ImageDemo.acs' model must be deployed and started on the ARE without error message</t>
+  </si>
+  <si>
+    <t>6.After setting autorun model, the AR E must start with the ImageDemo.acs model</t>
+  </si>
+  <si>
+    <t>ACS_ARE_11
+ARE start file: start.bat (start.sh)
+ACS: ACS.exe</t>
+  </si>
+  <si>
+    <t>1. Execute ARE start file
+2. Start ACS
+3. Click on 'Connect to ARE' button
+4. Click on 'Set as autorunl'
+5. Stop ARE
+6. Execute ARE start file
+7. Restore original demomenu.acs as autorun model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Execute ARE start file
+2. Start ACS
+3. Click on 'Connect to ARE' button
+4. Click on 'Load model from storage', select the model 'demomenu.acs' and click onto OK
+</t>
+  </si>
+  <si>
+    <t>4. The 'demomenu.acs' model must be loaded into the ACS Deployment tab and visualized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Execute ARE start file
+2. Start ACS
+3. Click on 'Connect to ARE' button
+4. Click on 'Download model'
+5. Click on 'Store model on ARE' and save model as 'demomenu_new.acs'
+</t>
+  </si>
+  <si>
+    <t>5. The ARE/models directory must contain a model called 'demomenu_new.acs'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Execute ARE start file
+2. Start ACS
+3. Click on 'Connect to ARE' button
+4. Click on 'Delete a stored model' and select 'demomenu_new.acs'
+</t>
+  </si>
+  <si>
+    <t>4. The ARE/models directory must not contain a model called 'demomenu_new.acs'</t>
   </si>
 </sst>
 </file>
@@ -834,7 +887,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -844,14 +897,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.140625" customWidth="1"/>
-    <col min="2" max="3" width="63" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.28515625" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.5703125" customWidth="1"/>
     <col min="5" max="5" width="77" customWidth="1"/>
     <col min="6" max="6" width="58.7109375" customWidth="1"/>
@@ -998,7 +1052,7 @@
         <v>44</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G10" s="5"/>
     </row>
@@ -1019,7 +1073,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G11" s="5"/>
     </row>
@@ -1040,7 +1094,7 @@
         <v>46</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G12" s="5"/>
     </row>
@@ -1082,7 +1136,7 @@
         <v>49</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" s="5"/>
     </row>
@@ -1162,8 +1216,12 @@
       <c r="D18" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1177,10 +1235,14 @@
         <v>66</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+        <v>84</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1194,10 +1256,14 @@
         <v>66</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+        <v>74</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1211,10 +1277,14 @@
         <v>66</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1228,10 +1298,14 @@
         <v>66</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+        <v>76</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/Tests/integrationTests/03_ACS-ARE-interaction/Test_cases_ACS_ARE.xlsx
+++ b/Tests/integrationTests/03_ACS-ARE-interaction/Test_cases_ACS_ARE.xlsx
@@ -309,6 +309,168 @@
     <t>Environment (OS + Version, Architecture, Java Version):</t>
   </si>
   <si>
+    <t>Applicable OS (Skip otherwise)</t>
+  </si>
+  <si>
+    <t>ACE_ARE_1a</t>
+  </si>
+  <si>
+    <t>Disable ACS to ARE connection port</t>
+  </si>
+  <si>
+    <t>ARE start file: start.bat (start.sh)
+ACS: ACS.exe</t>
+  </si>
+  <si>
+    <t>5. The connection must fail with an error message</t>
+  </si>
+  <si>
+    <t>1. Edit ARE/areProperties file and set 
+ASAPI.enableACSPortConnection=0
+2. Save areProperties file
+3. Execute ARE start file
+4. Start ACS
+5. Click on 'Connect to ARE' button
+6. After test, close both applications and delte areProperties file</t>
+  </si>
+  <si>
+    <t>Win</t>
+  </si>
+  <si>
+    <t>ARE start file: start.bat (start.sh)
+ACS: ACS.exe
+Test ACS_ARE_1</t>
+  </si>
+  <si>
+    <t>ARE start file: start.bat (start.sh)
+ACS: ACS.exe
+Test ACS_ARE_3</t>
+  </si>
+  <si>
+    <t>ARE start file: start.bat (start.sh)
+ACS: ACS.exe
+ACS_ARE_4</t>
+  </si>
+  <si>
+    <t>ARE start file: start.bat (start.sh)
+ACS: ACS.exe
+ACS_ARE_4
+model: CameraMouse.acs</t>
+  </si>
+  <si>
+    <t>ARE start file: start.bat (start.sh)
+ACS: ACS.exe
+ACS_ARE_5
+model: CameraMouse.acs</t>
+  </si>
+  <si>
+    <t>ARE start file: start.bat (start.sh)
+ACS: ACS.exe
+ACS_ARE_9
+model: CameraMouse.acs</t>
+  </si>
+  <si>
+    <t>ARE start file: start.bat (start.sh)
+ACS: ACS.exe
+activate model: ImageDemo.acs</t>
+  </si>
+  <si>
+    <t>ARE start file: start.bat (start.sh)
+ACS: ACS.exe
+model: demomenu.acs</t>
+  </si>
+  <si>
+    <t>ARE start file: start.bat (start.sh)
+ACS: ACS.exe
+store model as: demomenu_new.acs</t>
+  </si>
+  <si>
+    <t>ARE start file: start.bat (start.sh)
+ACS: ACS.exe
+delete model: demomenu_new.acs</t>
+  </si>
+  <si>
+    <t>1. The currently deployed model must be downloaded and shown in the 'Deployment' tab
+2. If the model on the ARE is running, the ACS must disable the 'Start' button and enable the 'Pause' and  'Stop' button
+3. ARE Status: Running</t>
+  </si>
+  <si>
+    <t>1. If the model on the ARE is running, the ACS must disable the 'Start' button
+2. After clicking, the model must stop running,
+ARE Status: Synchronized</t>
+  </si>
+  <si>
+    <t>1. If the model on the ARE is stopped, the ACS must disable the 'Stop' amd Pause buttons
+2. After clicking the model must be started without error message
+ARE Status: Running
+Deployment tab (Canvas) background color must change to grey</t>
+  </si>
+  <si>
+    <t>1. If the model on the ARE is running, the ACS must disable the 'Start' button
+2. After clicking 'Pause Model' button, the model GUI must be shown but the model not functional as expected
+ARE Status: 'Pause' 
+3. After clicking 'Start Model' button, the model GUI  must be shown and functional as expected
+ARE Status: 'Running'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Execute ARE start file
+2. Start ACS
+3. Click on 'Connect to ARE' button
+4. Click on 'Activate a stored Model', select the model 'ImageDemo.acs' and click onto OK
+</t>
+  </si>
+  <si>
+    <t>4.The 'ImageDemo.acs' model must be deployed and started on the ARE without error message</t>
+  </si>
+  <si>
+    <t>6.After setting autorun model, the AR E must start with the ImageDemo.acs model</t>
+  </si>
+  <si>
+    <t>ACS_ARE_11
+ARE start file: start.bat (start.sh)
+ACS: ACS.exe</t>
+  </si>
+  <si>
+    <t>1. Execute ARE start file
+2. Start ACS
+3. Click on 'Connect to ARE' button
+4. Click on 'Set as autorunl'
+5. Stop ARE
+6. Execute ARE start file
+7. Restore original demomenu.acs as autorun model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Execute ARE start file
+2. Start ACS
+3. Click on 'Connect to ARE' button
+4. Click on 'Load model from storage', select the model 'demomenu.acs' and click onto OK
+</t>
+  </si>
+  <si>
+    <t>4. The 'demomenu.acs' model must be loaded into the ACS Deployment tab and visualized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Execute ARE start file
+2. Start ACS
+3. Click on 'Connect to ARE' button
+4. Click on 'Download model'
+5. Click on 'Store model on ARE' and save model as 'demomenu_new.acs'
+</t>
+  </si>
+  <si>
+    <t>5. The ARE/models directory must contain a model called 'demomenu_new.acs'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Execute ARE start file
+2. Start ACS
+3. Click on 'Connect to ARE' button
+4. Click on 'Delete a stored model' and select 'demomenu_new.acs'
+</t>
+  </si>
+  <si>
+    <t>4. The ARE/models directory must not contain a model called 'demomenu_new.acs'</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Note: If no error dialogs are shown in the ARE gui, ensure to set the following property in the file 'areProperties':
 showErrorDialogs=1
@@ -336,171 +498,9 @@
         <scheme val="minor"/>
       </rPr>
       <t>Win: ARE.exe, start.bat and start_debug.bat
-Linux: start.sh, start_debug.sh or asterics-are-javaembedded
-Mac OSX: start.sh, start_debug.sh</t>
+Linux: start.sh, start_debug.sh or asterics-are
+Mac OSX: start.sh, start_debug.sh or asterics-are</t>
     </r>
-  </si>
-  <si>
-    <t>Applicable OS (Skip otherwise)</t>
-  </si>
-  <si>
-    <t>ACE_ARE_1a</t>
-  </si>
-  <si>
-    <t>Disable ACS to ARE connection port</t>
-  </si>
-  <si>
-    <t>ARE start file: start.bat (start.sh)
-ACS: ACS.exe</t>
-  </si>
-  <si>
-    <t>5. The connection must fail with an error message</t>
-  </si>
-  <si>
-    <t>1. Edit ARE/areProperties file and set 
-ASAPI.enableACSPortConnection=0
-2. Save areProperties file
-3. Execute ARE start file
-4. Start ACS
-5. Click on 'Connect to ARE' button
-6. After test, close both applications and delte areProperties file</t>
-  </si>
-  <si>
-    <t>Win</t>
-  </si>
-  <si>
-    <t>ARE start file: start.bat (start.sh)
-ACS: ACS.exe
-Test ACS_ARE_1</t>
-  </si>
-  <si>
-    <t>ARE start file: start.bat (start.sh)
-ACS: ACS.exe
-Test ACS_ARE_3</t>
-  </si>
-  <si>
-    <t>ARE start file: start.bat (start.sh)
-ACS: ACS.exe
-ACS_ARE_4</t>
-  </si>
-  <si>
-    <t>ARE start file: start.bat (start.sh)
-ACS: ACS.exe
-ACS_ARE_4
-model: CameraMouse.acs</t>
-  </si>
-  <si>
-    <t>ARE start file: start.bat (start.sh)
-ACS: ACS.exe
-ACS_ARE_5
-model: CameraMouse.acs</t>
-  </si>
-  <si>
-    <t>ARE start file: start.bat (start.sh)
-ACS: ACS.exe
-ACS_ARE_9
-model: CameraMouse.acs</t>
-  </si>
-  <si>
-    <t>ARE start file: start.bat (start.sh)
-ACS: ACS.exe
-activate model: ImageDemo.acs</t>
-  </si>
-  <si>
-    <t>ARE start file: start.bat (start.sh)
-ACS: ACS.exe
-model: demomenu.acs</t>
-  </si>
-  <si>
-    <t>ARE start file: start.bat (start.sh)
-ACS: ACS.exe
-store model as: demomenu_new.acs</t>
-  </si>
-  <si>
-    <t>ARE start file: start.bat (start.sh)
-ACS: ACS.exe
-delete model: demomenu_new.acs</t>
-  </si>
-  <si>
-    <t>1. The currently deployed model must be downloaded and shown in the 'Deployment' tab
-2. If the model on the ARE is running, the ACS must disable the 'Start' button and enable the 'Pause' and  'Stop' button
-3. ARE Status: Running</t>
-  </si>
-  <si>
-    <t>1. If the model on the ARE is running, the ACS must disable the 'Start' button
-2. After clicking, the model must stop running,
-ARE Status: Synchronized</t>
-  </si>
-  <si>
-    <t>1. If the model on the ARE is stopped, the ACS must disable the 'Stop' amd Pause buttons
-2. After clicking the model must be started without error message
-ARE Status: Running
-Deployment tab (Canvas) background color must change to grey</t>
-  </si>
-  <si>
-    <t>1. If the model on the ARE is running, the ACS must disable the 'Start' button
-2. After clicking 'Pause Model' button, the model GUI must be shown but the model not functional as expected
-ARE Status: 'Pause' 
-3. After clicking 'Start Model' button, the model GUI  must be shown and functional as expected
-ARE Status: 'Running'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Execute ARE start file
-2. Start ACS
-3. Click on 'Connect to ARE' button
-4. Click on 'Activate a stored Model', select the model 'ImageDemo.acs' and click onto OK
-</t>
-  </si>
-  <si>
-    <t>4.The 'ImageDemo.acs' model must be deployed and started on the ARE without error message</t>
-  </si>
-  <si>
-    <t>6.After setting autorun model, the AR E must start with the ImageDemo.acs model</t>
-  </si>
-  <si>
-    <t>ACS_ARE_11
-ARE start file: start.bat (start.sh)
-ACS: ACS.exe</t>
-  </si>
-  <si>
-    <t>1. Execute ARE start file
-2. Start ACS
-3. Click on 'Connect to ARE' button
-4. Click on 'Set as autorunl'
-5. Stop ARE
-6. Execute ARE start file
-7. Restore original demomenu.acs as autorun model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Execute ARE start file
-2. Start ACS
-3. Click on 'Connect to ARE' button
-4. Click on 'Load model from storage', select the model 'demomenu.acs' and click onto OK
-</t>
-  </si>
-  <si>
-    <t>4. The 'demomenu.acs' model must be loaded into the ACS Deployment tab and visualized</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Execute ARE start file
-2. Start ACS
-3. Click on 'Connect to ARE' button
-4. Click on 'Download model'
-5. Click on 'Store model on ARE' and save model as 'demomenu_new.acs'
-</t>
-  </si>
-  <si>
-    <t>5. The ARE/models directory must contain a model called 'demomenu_new.acs'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Execute ARE start file
-2. Start ACS
-3. Click on 'Connect to ARE' button
-4. Click on 'Delete a stored model' and select 'demomenu_new.acs'
-</t>
-  </si>
-  <si>
-    <t>4. The ARE/models directory must not contain a model called 'demomenu_new.acs'</t>
   </si>
 </sst>
 </file>
@@ -887,7 +887,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -897,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,7 +939,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C3" s="6"/>
       <c r="E3" s="7" t="s">
@@ -957,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>2</v>
@@ -974,22 +974,22 @@
     </row>
     <row r="7" spans="1:7" ht="171" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="G7" s="5"/>
     </row>
@@ -1001,10 +1001,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>40</v>
@@ -1022,10 +1022,10 @@
         <v>17</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>42</v>
@@ -1043,16 +1043,16 @@
         <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>44</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G10" s="5"/>
     </row>
@@ -1064,16 +1064,16 @@
         <v>19</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G11" s="5"/>
     </row>
@@ -1085,16 +1085,16 @@
         <v>20</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G12" s="5"/>
     </row>
@@ -1106,10 +1106,10 @@
         <v>30</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>47</v>
@@ -1127,16 +1127,16 @@
         <v>21</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>49</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14" s="5"/>
     </row>
@@ -1148,10 +1148,10 @@
         <v>28</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>50</v>
@@ -1169,10 +1169,10 @@
         <v>27</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>52</v>
@@ -1190,10 +1190,10 @@
         <v>29</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>54</v>
@@ -1211,16 +1211,16 @@
         <v>22</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1232,16 +1232,16 @@
         <v>26</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="F19" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1253,16 +1253,16 @@
         <v>23</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1274,16 +1274,16 @@
         <v>24</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -1295,16 +1295,16 @@
         <v>25</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="G22" s="5"/>
     </row>
